--- a/GESTION/RACI ENERBIOFLEX.xlsx
+++ b/GESTION/RACI ENERBIOFLEX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>matrice RACI</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Formation à Github</t>
+  </si>
+  <si>
+    <t>PHP</t>
   </si>
 </sst>
 </file>
@@ -209,21 +212,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,7 +525,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -565,13 +569,13 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
@@ -643,13 +647,13 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
@@ -686,13 +690,13 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
@@ -704,7 +708,7 @@
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -712,37 +716,54 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
